--- a/src/main/resources/try.xlsx
+++ b/src/main/resources/try.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F90C72-252F-4689-8218-434CD2988E86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0DE2AE-3F0A-44BA-ABEC-5A44EFBF44FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2055" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="4725" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,7 +218,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>201624133134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20162413313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44088219970320471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共青团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +577,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>50</v>
@@ -830,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>49</v>
@@ -921,7 +945,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -948,7 +972,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>7</v>
@@ -995,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>54</v>
@@ -1054,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>

--- a/src/main/resources/try.xlsx
+++ b/src/main/resources/try.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0DE2AE-3F0A-44BA-ABEC-5A44EFBF44FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACF0F1-04C9-4318-8AB7-1228EFBA0B71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="4725" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2055" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广东省湛江市雷州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五区13102</t>
   </si>
   <si>
@@ -234,15 +230,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件工程1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>共青团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440882199703204715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共青团员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16软件3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国/广东省/湛江市/雷州市/雷高镇</t>
+  </si>
+  <si>
+    <t>中国/广东省/湛江市/雷州市/雷高镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +592,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -607,25 +622,25 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -634,95 +649,95 @@
         <v>6</v>
       </c>
       <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
@@ -731,48 +746,48 @@
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>7</v>
@@ -781,48 +796,48 @@
         <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -831,48 +846,48 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
@@ -881,48 +896,48 @@
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>7</v>
@@ -931,48 +946,48 @@
         <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>7</v>
@@ -981,48 +996,48 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>7</v>
@@ -1031,48 +1046,48 @@
         <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>7</v>
@@ -1081,13 +1096,13 @@
         <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
